--- a/src/test/resources/exceldata/registerpageExceldata.xlsx
+++ b/src/test/resources/exceldata/registerpageExceldata.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Seema\Eclipse\Gitcode\dsalgo\src\test\resources\exceldata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96B1B93B-8F96-4655-A3E1-1A6CD97A9CA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{465A0169-2099-4D2E-A742-18CA35DFAB12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-29475" yWindow="-1980" windowWidth="21600" windowHeight="11145" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1950" yWindow="1950" windowWidth="21600" windowHeight="11145" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="26">
   <si>
     <t>username</t>
   </si>
@@ -48,9 +48,6 @@
     <t>Please fill out this field.</t>
   </si>
   <si>
-    <t>password_mismatch:The two password fields didn't match.</t>
-  </si>
-  <si>
     <t>New Account Created. You are logged in as &lt;username&gt;</t>
   </si>
   <si>
@@ -60,43 +57,58 @@
     <t>test123</t>
   </si>
   <si>
-    <t>test12</t>
-  </si>
-  <si>
-    <t>test1234</t>
-  </si>
-  <si>
     <t>The_Big_leauge</t>
   </si>
   <si>
-    <t>sadgfgghj</t>
-  </si>
-  <si>
     <t>The_Big_Leauge</t>
   </si>
   <si>
-    <t>hfg_039944</t>
-  </si>
-  <si>
-    <t>dshshfjkg</t>
-  </si>
-  <si>
-    <t>eyr99008</t>
-  </si>
-  <si>
     <t>User@0000</t>
   </si>
   <si>
     <t>test1235</t>
   </si>
   <si>
-    <t>test1236</t>
-  </si>
-  <si>
-    <t>test1237</t>
-  </si>
-  <si>
-    <t>test1238</t>
+    <t>The_Big</t>
+  </si>
+  <si>
+    <t>Please enter a valid user name</t>
+  </si>
+  <si>
+    <t>Numy@sdet84_1</t>
+  </si>
+  <si>
+    <t>RT56YUabc</t>
+  </si>
+  <si>
+    <t>UserName already Exist</t>
+  </si>
+  <si>
+    <t>wrtey</t>
+  </si>
+  <si>
+    <t>password_mismatch:The two password fields didn’t match</t>
+  </si>
+  <si>
+    <t>wrteyt</t>
+  </si>
+  <si>
+    <t>sadhj</t>
+  </si>
+  <si>
+    <t>Big_leauge</t>
+  </si>
+  <si>
+    <t>password can’t be too similar to your other personal information</t>
+  </si>
+  <si>
+    <t>When The user enters a valid ""username"" and commonly used password ""password</t>
+  </si>
+  <si>
+    <t>password can't be entirely numeric</t>
+  </si>
+  <si>
+    <t>Password should contain atleast 8 characters</t>
   </si>
 </sst>
 </file>
@@ -118,12 +130,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
+      <color rgb="FF1D1C1D"/>
+      <name val="Arial"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -143,16 +153,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -468,14 +476,14 @@
   <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.42578125" customWidth="1"/>
-    <col min="3" max="3" width="17.85546875" customWidth="1"/>
+    <col min="3" max="3" width="14.7109375" customWidth="1"/>
     <col min="4" max="4" width="62" customWidth="1"/>
   </cols>
   <sheetData>
@@ -500,7 +508,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D3" t="s">
         <v>4</v>
@@ -508,10 +516,10 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
         <v>7</v>
-      </c>
-      <c r="B4" t="s">
-        <v>8</v>
       </c>
       <c r="D4" t="s">
         <v>4</v>
@@ -519,121 +527,119 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" t="s">
         <v>7</v>
       </c>
-      <c r="B5" t="s">
-        <v>8</v>
-      </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D5" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="D6" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="C7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" t="s">
-        <v>5</v>
+        <v>19</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" t="s">
         <v>11</v>
       </c>
-      <c r="B8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" t="s">
-        <v>18</v>
-      </c>
       <c r="D8" t="s">
-        <v>5</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C9" t="s">
-        <v>19</v>
+        <v>9</v>
+      </c>
+      <c r="B9">
+        <v>12522</v>
+      </c>
+      <c r="C9">
+        <v>12522</v>
       </c>
       <c r="D9" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C10" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D10" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="C11" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="D11" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>13</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>17</v>
+        <v>9</v>
+      </c>
+      <c r="B12" t="s">
+        <v>10</v>
       </c>
       <c r="C12" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="D12" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="B12" r:id="rId1" xr:uid="{E6AA629E-E9F5-463E-93D6-95E6FD6A04CA}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/src/test/resources/exceldata/registerpageExceldata.xlsx
+++ b/src/test/resources/exceldata/registerpageExceldata.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Seema\Eclipse\Gitcode\dsalgo\src\test\resources\exceldata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{465A0169-2099-4D2E-A742-18CA35DFAB12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93BAC367-01B7-4EC7-BDC0-A26751C82F0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1950" yWindow="1950" windowWidth="21600" windowHeight="11145" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -87,9 +87,6 @@
     <t>wrtey</t>
   </si>
   <si>
-    <t>password_mismatch:The two password fields didn’t match</t>
-  </si>
-  <si>
     <t>wrteyt</t>
   </si>
   <si>
@@ -109,6 +106,9 @@
   </si>
   <si>
     <t>Password should contain atleast 8 characters</t>
+  </si>
+  <si>
+    <t>password_mismatch:The two password fields didn’t match.</t>
   </si>
 </sst>
 </file>
@@ -476,7 +476,7 @@
   <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -555,16 +555,16 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B7" t="s">
         <v>17</v>
       </c>
       <c r="C7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -572,13 +572,13 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C8" t="s">
         <v>11</v>
       </c>
       <c r="D8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -592,7 +592,7 @@
         <v>12522</v>
       </c>
       <c r="D9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -600,13 +600,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" t="s">
         <v>21</v>
-      </c>
-      <c r="C10" t="s">
-        <v>21</v>
-      </c>
-      <c r="D10" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -620,7 +620,7 @@
         <v>7</v>
       </c>
       <c r="D11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
